--- a/01code_analysis/代码解析.xlsx
+++ b/01code_analysis/代码解析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_work\04_xinjiang\03_soft\duijiang\freeswitch\01code_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88AE806-6DA9-417C-9A8C-9FF339848983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF53BCE9-5365-4A81-8F98-E8781EF5476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6262" uniqueCount="4232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6631" uniqueCount="4523">
   <si>
     <t>1 主入口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12797,6 +12797,10 @@
     <t>switch_event_destroy(&amp;my_params);</t>
   </si>
   <si>
+    <t>mod_xml_curl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>省略一系列调用过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12954,6 +12958,888 @@
   </si>
   <si>
     <t>可使用该数据，查询指定的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>###呼叫时机，查询拨号计划用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;    mod_xml_curl.dll!xml_url_fetch(const char * section, const char * tag_name, const char * key_name, const char * key_value, switch_event * params, void * user_data) 行 206    C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     mod_dialplan_xml.dll!dialplan_xml_locate(switch_core_session * session, switch_caller_profile * caller_profile, switch_xml * * root, switch_xml * * node) 行 615    C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     mod_dialplan_xml.dll!dialplan_hunt(switch_core_session * session, void * arg, switch_caller_profile * caller_profile) 行 660    C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     FreeSwitch.dll!switch_core_standard_on_routing(switch_core_session * session) 行 276    C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     FreeSwitch.dll!switch_core_session_run(switch_core_session * session) 行 640    C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     FreeSwitch.dll!switch_core_session_thread_pool_worker(fspr_thread_t * thread, void * obj) 行 1792    C</t>
+  </si>
+  <si>
+    <t>switch_core_state_machine.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册，拨号计划动态获取配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            case CS_ROUTING:    /* Look for a dialplan and find something to do */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static void switch_core_standard_on_routing(switch_core_session_t *session)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_dialplan_interface_t *dialplan_interface = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_caller_profile_t *caller_profile;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_caller_extension_t *extension = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char *expanded = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char *dpstr = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_DEBUG, "%s Standard ROUTING\n", switch_channel_get_name(session-&gt;channel));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_channel_set_variable(session-&gt;channel, "call_uuid", switch_core_session_get_uuid(session));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if ((switch_channel_test_flag(session-&gt;channel, CF_ANSWERED) ||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         switch_channel_test_flag(session-&gt;channel, CF_EARLY_MEDIA) ||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         switch_channel_test_flag(session-&gt;channel, CF_SIGNAL_BRIDGE_TTL)) &amp;&amp; switch_channel_test_flag(session-&gt;channel, CF_PROXY_MODE)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch_ivr_media(session-&gt;uuid_str, SMF_NONE);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if ((caller_profile = switch_channel_get_caller_profile(session-&gt;channel)) == 0) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_ERROR, "Can't get profile!\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch_channel_hangup(session-&gt;channel, SWITCH_CAUSE_DESTINATION_OUT_OF_ORDER);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        char *dp[25];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int argc, x, count = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if ((extension = switch_channel_get_queued_extension(session-&gt;channel))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_channel_set_caller_extension(session-&gt;channel, extension);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_channel_set_state(session-&gt;channel, CS_EXECUTE);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!zstr(caller_profile-&gt;dialplan)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if ((dpstr = switch_core_session_strdup(session, caller_profile-&gt;dialplan))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                expanded = switch_channel_expand_variables(session-&gt;channel, dpstr);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                argc = switch_separate_string(expanded, ',', dp, (sizeof(dp) / sizeof(dp[0])));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                for (x = 0; x &lt; argc; x++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    char *dpname = dp[x];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    char *dparg = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (dpname) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if ((dparg = strchr(dpname, ':'))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            *dparg++ = '\0';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        continue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (!(dialplan_interface = switch_loadable_module_get_dialplan_interface(dpname))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_ERROR, "Dialplan [%s] not found, skipping\n", dpname);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    count++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    extension = dialplan_interface-&gt;hunt_function(session, dparg, NULL);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    UNPROTECT_INTERFACE(dialplan_interface);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (extension) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        switch_channel_set_caller_extension(session-&gt;channel, extension);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        switch_channel_set_state(session-&gt;channel, CS_EXECUTE);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        goto end;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!count) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (switch_channel_direction(session-&gt;channel) == SWITCH_CALL_DIRECTION_OUTBOUND) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (switch_channel_test_flag(session-&gt;channel, CF_ANSWERED)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      "No Dialplan on answered channel, changing state to HANGUP\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    switch_channel_hangup(session-&gt;channel, SWITCH_CAUSE_NO_ROUTE_DESTINATION);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_DEBUG, "No Dialplan, changing state to CONSUME_MEDIA\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    switch_channel_set_state(session-&gt;channel, CS_CONSUME_MEDIA);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!extension) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (switch_ivr_blind_transfer_ack(session, SWITCH_FALSE) != SWITCH_STATUS_SUCCESS) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_INFO, "No Route, Aborting\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_channel_hangup(session-&gt;channel, SWITCH_CAUSE_NO_ROUTE_DESTINATION);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (expanded &amp;&amp; dpstr &amp;&amp; expanded != dpstr) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        free(expanded);</t>
+  </si>
+  <si>
+    <t>SWITCH_STANDARD_DIALPLAN(dialplan_hunt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_xml_t alt_root = NULL, cfg, xml = NULL, xcontext, xexten = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char *alt_path = (char *) arg;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const char *hunt = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!caller_profile) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!(caller_profile = switch_channel_get_caller_profile(channel))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_ERROR, "Error Obtaining Profile!\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!caller_profile-&gt;context) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        caller_profile-&gt;context = "default";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_INFO, "Processing %s &lt;%s&gt;-&gt;%s in context %s\n",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      caller_profile-&gt;caller_id_name, caller_profile-&gt;caller_id_number, caller_profile-&gt;destination_number, caller_profile-&gt;context);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* get our handle to the "dialplan" section of the config */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!zstr(alt_path)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch_xml_t conf = NULL, tag = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!(alt_root = switch_xml_parse_file_simple(alt_path))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_ERROR, "Open of [%s] failed\n", alt_path);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if ((conf = switch_xml_find_child(alt_root, "section", "name", "dialplan")) &amp;&amp; (tag = switch_xml_find_child(conf, "dialplan", NULL, NULL))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_DEBUG, "Getting dialplan from alternate path: %s\n", alt_path);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            xml = alt_root;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            cfg = tag;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_ERROR, "Open of dialplan failed\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (dialplan_xml_locate(session, caller_profile, &amp;xml, &amp;cfg) != SWITCH_STATUS_SUCCESS) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /* get a handle to the context tag */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!(xcontext = switch_xml_find_child(cfg, "context", "name", caller_profile-&gt;context))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!(xcontext = switch_xml_find_child(cfg, "context", "name", "global"))) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_WARNING, "Context %s not found\n", caller_profile-&gt;context);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if ((hunt = switch_channel_get_variable(channel, "auto_hunt")) &amp;&amp; switch_true(hunt)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        xexten = switch_xml_find_child(xcontext, "extension", "name", caller_profile-&gt;destination_number);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (!xexten) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        xexten = switch_xml_child(xcontext, "extension");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while (xexten) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int proceed = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        const char *cont = switch_xml_attr(xexten, "continue");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        const char *exten_name = switch_xml_attr(xexten, "name");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (!exten_name) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            exten_name = "UNKNOWN";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if ( switch_core_test_flag(SCF_DIALPLAN_TIMESTAMPS) ) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG(session), SWITCH_LOG_DEBUG,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          "Dialplan: %s parsing [%s-&gt;%s] continue=%s\n",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          switch_channel_get_name(channel), caller_profile-&gt;context, exten_name, cont ? cont : "false");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            switch_log_printf(SWITCH_CHANNEL_SESSION_LOG_CLEAN(session), SWITCH_LOG_DEBUG,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        proceed = parse_exten(session, caller_profile, xexten, &amp;extension, exten_name, 0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (proceed &amp;&amp; !switch_true(cont)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        xexten = xexten-&gt;next;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switch_xml_free(xml);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    xml = NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return extension;</t>
+  </si>
+  <si>
+    <t>mod_dialplan_xml.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见932行解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终调用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处省略掉一系列调用过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (binding-&gt;use_get_style == 1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        uri = malloc(strlen(data) + strlen(dynamic_url) + 16);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch_assert(uri);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sprintf(uri, "%s%c%s", dynamic_url, strchr(dynamic_url, '?') != NULL ? '&amp;' : '?', data);</t>
+  </si>
+  <si>
+    <t>...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data内容为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section=dialplan&amp;</t>
+  </si>
+  <si>
+    <t>tag_name=&amp;</t>
+  </si>
+  <si>
+    <t>key_name=&amp;</t>
+  </si>
+  <si>
+    <t>key_value=&amp;</t>
+  </si>
+  <si>
+    <t>Core-UUID=421ba883-76ba-4e37-b542-005d3d547098&amp;</t>
+  </si>
+  <si>
+    <t>Event-Date-Local=2024-02-06%2017%3A47%3A33&amp;</t>
+  </si>
+  <si>
+    <t>Event-Date-GMT=Tue,%2006%20Feb%202024%2009%3A47%3A33%20GMT&amp;</t>
+  </si>
+  <si>
+    <t>Event-Date-Timestamp=1707212853046124&amp;</t>
+  </si>
+  <si>
+    <t>Event-Calling-File=mod_dialplan_xml.c&amp;</t>
+  </si>
+  <si>
+    <t>Event-Calling-Function=dialplan_xml_locate&amp;</t>
+  </si>
+  <si>
+    <t>Event-Calling-Line-Number=610&amp;</t>
+  </si>
+  <si>
+    <t>Event-Sequence=652&amp;</t>
+  </si>
+  <si>
+    <t>Channel-State=CS_ROUTING&amp;</t>
+  </si>
+  <si>
+    <t>Channel-Call-State=RINGING&amp;</t>
+  </si>
+  <si>
+    <t>Channel-State-Number=2&amp;</t>
+  </si>
+  <si>
+    <t>Channel-Name=sofia/internal/601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>Unique-ID=bb0a2727-6bdb-4b49-9bea-350d8411e0a1&amp;</t>
+  </si>
+  <si>
+    <t>Call-Direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>Presence-Call-Direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>Channel-HIT-Dialplan=true&amp;</t>
+  </si>
+  <si>
+    <t>Channel-Presence-ID=601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>Channel-Call-UUID=bb0a2727-6bdb-4b49-9bea-350d8411e0a1&amp;</t>
+  </si>
+  <si>
+    <t>Answer-State=ringing&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Logical-Direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Username=601&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Dialplan=XML&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Caller-ID-Name=601&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Caller-ID-Number=601&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Orig-Caller-ID-Name=601&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Orig-Caller-ID-Number=601&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Network-Addr=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>Caller-ANI=601&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Destination-Number=600&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Unique-ID=bb0a2727-6bdb-4b49-9bea-350d8411e0a1&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Source=mod_sofia&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Context=default&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Name=sofia/internal/601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Profile-Index=1&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Profile-Created-Time=1707212843067576&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Created-Time=1707212843067576&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Answered-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Progress-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Progress-Media-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Hangup-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Transfer-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Resurrect-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Bridged-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Last-Hold=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Channel-Hold-Accum=0&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Screen-Bit=true&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Privacy-Hide-Name=false&amp;</t>
+  </si>
+  <si>
+    <t>Caller-Privacy-Hide-Number=false&amp;</t>
+  </si>
+  <si>
+    <t>variable_direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>variable_uuid=bb0a2727-6bdb-4b49-9bea-350d8411e0a1&amp;</t>
+  </si>
+  <si>
+    <t>variable_session_id=4&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_from_user=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_from_uri=601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_from_host=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_video_media_flow=disabled&amp;</t>
+  </si>
+  <si>
+    <t>variable_audio_media_flow=disabled&amp;</t>
+  </si>
+  <si>
+    <t>variable_text_media_flow=disabled&amp;</t>
+  </si>
+  <si>
+    <t>variable_channel_name=sofia/internal/601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_call_id=120e167cc751416b9b642b28cce07fce&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_local_network_addr=58.210.4.122&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_network_ip=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_network_port=51730&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_invite_stamp=1707212843067576&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_received_ip=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_received_port=51730&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_via_protocol=udp&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_authorized=true&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Name=REQUEST_PARAMS&amp;</t>
+  </si>
+  <si>
+    <t>variable_Core-UUID=421ba883-76ba-4e37-b542-005d3d547098&amp;</t>
+  </si>
+  <si>
+    <t>variable_FreeSWITCH-Hostname=LAPTOP-1VHLBM7T&amp;</t>
+  </si>
+  <si>
+    <t>variable_FreeSWITCH-Switchname=LAPTOP-1VHLBM7T&amp;</t>
+  </si>
+  <si>
+    <t>variable_FreeSWITCH-IPv4=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_FreeSWITCH-IPv6=%3A%3A1&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Date-Local=2024-02-06%2017%3A47%3A23&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Date-GMT=Tue,%2006%20Feb%202024%2009%3A47%3A23%20GMT&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Date-Timestamp=1707212843067576&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Calling-File=sofia.c&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Calling-Function=sofia_handle_sip_i_invite&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Calling-Line-Number=10722&amp;</t>
+  </si>
+  <si>
+    <t>variable_Event-Sequence=645&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_number_alias=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_auth_username=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_auth_realm=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_number_alias=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_requested_user_name=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_requested_domain_name=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_record_stereo=true&amp;</t>
+  </si>
+  <si>
+    <t>variable_default_gateway=example.com&amp;</t>
+  </si>
+  <si>
+    <t>variable_default_areacode=918&amp;</t>
+  </si>
+  <si>
+    <t>variable_transfer_fallback_extension=operator&amp;</t>
+  </si>
+  <si>
+    <t>variable_toll_allow=domestic,international,local&amp;</t>
+  </si>
+  <si>
+    <t>variable_accountcode=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_user_context=default&amp;</t>
+  </si>
+  <si>
+    <t>variable_effective_caller_id_name=Extension%20601&amp;</t>
+  </si>
+  <si>
+    <t>variable_effective_caller_id_number=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_outbound_caller_id_name=FreeSWITCH&amp;</t>
+  </si>
+  <si>
+    <t>variable_outbound_caller_id_number=0000000000&amp;</t>
+  </si>
+  <si>
+    <t>variable_callgroup=techsupport&amp;</t>
+  </si>
+  <si>
+    <t>variable_user_name=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_domain_name=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_from_user_stripped=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_from_tag=f409c70620d344b5921120e18baecefa&amp;</t>
+  </si>
+  <si>
+    <t>variable_sofia_profile_name=internal&amp;</t>
+  </si>
+  <si>
+    <t>variable_sofia_profile_url=sip%3Amod_sofia%4058.210.4.122%3A5060&amp;</t>
+  </si>
+  <si>
+    <t>variable_recovery_profile_name=internal&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_full_via=SIP/2.0/UDP%20192.168.1.124%3A51730%3Brport%3D51730%3Bbranch%3Dz9hG4bKPj191c6ce061084d448758c41eb2ea0b8d&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_from_display=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_full_from=%22601%22%20%3Csip%3A601%40192.168.1.124%3E%3Btag%3Df409c70620d344b5921120e18baecefa&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_full_to=%3Csip%3A600%40192.168.1.124%3E&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_allow=PRACK,%20INVITE,%20ACK,%20BYE,%20CANCEL,%20UPDATE,%20INFO,%20SUBSCRIBE,%20NOTIFY,%20REFER,%20MESSAGE,%20OPTIONS&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_req_user=600&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_req_uri=600%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_req_host=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_to_user=600&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_to_uri=600%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_to_host=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_contact_params=ob&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_contact_user=601&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_contact_port=51730&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_contact_uri=601%40192.168.1.124%3A51730&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_contact_host=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_rtp_use_codec_string=OPUS,G722,PCMU,PCMA,H264,VP8&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_user_agent=MicroSIP/3.21.3&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_via_host=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_via_port=51730&amp;</t>
+  </si>
+  <si>
+    <t>variable_sip_via_rport=51730&amp;</t>
+  </si>
+  <si>
+    <t>variable_max_forwards=70&amp;</t>
+  </si>
+  <si>
+    <t>variable_presence_id=601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>variable_switch_r_sdp=v%3D0%0D%0Ao%3D-%203916230443%203916230443%20IN%20IP4%20192.168.1.124%0D%0As%3Dpjmedia%0D%0Ab%3DAS%3A84%0D%0At%3D0%200%0D%0Aa%3DX-nat%3A0%0D%0Am%3Daudio%204004%20RTP/AVP%208%200%20101%0D%0Ac%3DIN%20IP4%20192.168.1.124%0D%0Ab%3DTIAS%3A64000%0D%0Aa%3Drtpmap%3A8%20PCMA/8000%0D%0Aa%3Drtpmap%3A0%20PCMU/8000%0D%0Aa%3Drtpmap%3A101%20telephone-event/8000%0D%0Aa%3Dfmtp%3A101%200-16%0D%0Aa%3Drtcp%3A4005%20IN%20IP4%20192.168.1.124%0D%0Aa%3Dssrc%3A1387481369%20cname%3A6dc404c4590d3083%0D%0A&amp;</t>
+  </si>
+  <si>
+    <t>variable_ep_codec_string=CORE_PCM_MODULE.PCMA%408000h%4020i%4064000b,CORE_PCM_MODULE.PCMU%408000h%4020i%4064000b&amp;</t>
+  </si>
+  <si>
+    <t>variable_endpoint_disposition=DELAYED%20NEGOTIATION&amp;</t>
+  </si>
+  <si>
+    <t>variable_call_uuid=bb0a2727-6bdb-4b49-9bea-350d8411e0a1&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Logical-Direction=inbound&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Username=601&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Dialplan=XML&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Caller-ID-Name=601&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Caller-ID-Number=601&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Orig-Caller-ID-Name=601&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Orig-Caller-ID-Number=601&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Network-Addr=192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-ANI=601&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Destination-Number=600&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Unique-ID=bb0a2727-6bdb-4b49-9bea-350d8411e0a1&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Source=mod_sofia&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Context=default&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Name=sofia/internal/601%40192.168.1.124&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Profile-Index=1&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Profile-Created-Time=1707212843067576&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Created-Time=1707212843067576&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Answered-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Progress-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Progress-Media-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Hangup-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Transfer-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Resurrect-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Bridged-Time=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Last-Hold=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Channel-Hold-Accum=0&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Screen-Bit=true&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Privacy-Hide-Name=false&amp;</t>
+  </si>
+  <si>
+    <t>Hunt-Privacy-Hide-Number=false</t>
+  </si>
+  <si>
+    <t>可根据这些内容定制化返回相关的拨号计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14448,7 +15334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14457,67 +15343,70 @@
     <col min="2" max="2" width="2.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3417</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3752</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>3525</v>
       </c>
@@ -17275,7 +18164,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857A7EE1-B91A-4D18-B678-EE4C41400EF2}">
-  <dimension ref="A2:AZ713"/>
+  <dimension ref="A2:AZ1114"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -18270,7 +19159,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
       <c r="AB199" s="2" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="200" spans="5:28" x14ac:dyDescent="0.25">
@@ -19620,7 +20509,7 @@
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C506" s="1" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -20044,7 +20933,7 @@
     </row>
     <row r="571" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C571" s="1" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -20056,7 +20945,7 @@
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
       <c r="AC571" s="2" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="572" spans="3:42" x14ac:dyDescent="0.25">
@@ -20115,7 +21004,7 @@
       <c r="Z573" s="46"/>
       <c r="AA573" s="8"/>
       <c r="AP573" s="2" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="574" spans="3:42" x14ac:dyDescent="0.25">
@@ -20146,10 +21035,10 @@
       <c r="Z574" s="10"/>
       <c r="AA574" s="11"/>
       <c r="AC574" s="2" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="AP574" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="575" spans="3:42" x14ac:dyDescent="0.25">
@@ -20157,12 +21046,12 @@
         <v>374</v>
       </c>
       <c r="AP575" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="576" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AP576" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="577" spans="3:42" x14ac:dyDescent="0.25">
@@ -20170,7 +21059,7 @@
         <v>585</v>
       </c>
       <c r="AP577" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="578" spans="3:42" x14ac:dyDescent="0.25">
@@ -20178,12 +21067,12 @@
         <v>4098</v>
       </c>
       <c r="AP578" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="579" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AP579" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="580" spans="3:42" x14ac:dyDescent="0.25">
@@ -20191,12 +21080,12 @@
         <v>4099</v>
       </c>
       <c r="AP580" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="581" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AP581" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="582" spans="3:42" x14ac:dyDescent="0.25">
@@ -20204,12 +21093,12 @@
         <v>4100</v>
       </c>
       <c r="AP582" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="583" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AP583" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="584" spans="3:42" x14ac:dyDescent="0.25">
@@ -20217,7 +21106,7 @@
         <v>4101</v>
       </c>
       <c r="AP584" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="585" spans="3:42" x14ac:dyDescent="0.25">
@@ -20225,12 +21114,12 @@
         <v>4102</v>
       </c>
       <c r="AP585" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="586" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AP586" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="587" spans="3:42" x14ac:dyDescent="0.25">
@@ -20238,7 +21127,7 @@
         <v>4103</v>
       </c>
       <c r="AP587" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="588" spans="3:42" x14ac:dyDescent="0.25">
@@ -20246,7 +21135,7 @@
         <v>4104</v>
       </c>
       <c r="AP588" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="589" spans="3:42" x14ac:dyDescent="0.25">
@@ -20254,12 +21143,12 @@
         <v>4105</v>
       </c>
       <c r="AP589" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="590" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AP590" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="591" spans="3:42" x14ac:dyDescent="0.25">
@@ -20267,7 +21156,7 @@
         <v>4106</v>
       </c>
       <c r="AP591" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="592" spans="3:42" x14ac:dyDescent="0.25">
@@ -20275,7 +21164,7 @@
         <v>4107</v>
       </c>
       <c r="AP592" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="593" spans="4:52" x14ac:dyDescent="0.25">
@@ -20283,7 +21172,7 @@
         <v>4108</v>
       </c>
       <c r="AP593" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="594" spans="4:52" x14ac:dyDescent="0.25">
@@ -20291,12 +21180,12 @@
         <v>374</v>
       </c>
       <c r="AP594" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="595" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AP595" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="596" spans="4:52" x14ac:dyDescent="0.25">
@@ -20304,7 +21193,7 @@
         <v>4109</v>
       </c>
       <c r="AP596" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="597" spans="4:52" x14ac:dyDescent="0.25">
@@ -20312,7 +21201,7 @@
         <v>4110</v>
       </c>
       <c r="AP597" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="598" spans="4:52" x14ac:dyDescent="0.25">
@@ -20320,7 +21209,7 @@
         <v>4111</v>
       </c>
       <c r="AP598" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="599" spans="4:52" x14ac:dyDescent="0.25">
@@ -20328,7 +21217,7 @@
         <v>374</v>
       </c>
       <c r="AP599" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="600" spans="4:52" x14ac:dyDescent="0.25">
@@ -20336,7 +21225,7 @@
         <v>4112</v>
       </c>
       <c r="AP600" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="601" spans="4:52" x14ac:dyDescent="0.25">
@@ -20344,7 +21233,7 @@
         <v>4113</v>
       </c>
       <c r="AP601" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="602" spans="4:52" x14ac:dyDescent="0.25">
@@ -20352,7 +21241,7 @@
         <v>4114</v>
       </c>
       <c r="AP602" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="603" spans="4:52" x14ac:dyDescent="0.25">
@@ -20360,7 +21249,7 @@
         <v>4115</v>
       </c>
       <c r="AP603" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="604" spans="4:52" x14ac:dyDescent="0.25">
@@ -20368,7 +21257,7 @@
         <v>4116</v>
       </c>
       <c r="AP604" s="1" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="AQ604" s="1"/>
       <c r="AR604" s="1"/>
@@ -20376,7 +21265,7 @@
       <c r="AT604" s="1"/>
       <c r="AU604" s="1"/>
       <c r="AZ604" s="2" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="605" spans="4:52" x14ac:dyDescent="0.25">
@@ -20384,7 +21273,7 @@
         <v>4117</v>
       </c>
       <c r="AP605" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="606" spans="4:52" x14ac:dyDescent="0.25">
@@ -20392,7 +21281,7 @@
         <v>4118</v>
       </c>
       <c r="AP606" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="607" spans="4:52" x14ac:dyDescent="0.25">
@@ -20400,7 +21289,7 @@
         <v>4119</v>
       </c>
       <c r="AP607" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="608" spans="4:52" x14ac:dyDescent="0.25">
@@ -20408,7 +21297,7 @@
         <v>4120</v>
       </c>
       <c r="AP608" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="609" spans="4:42" x14ac:dyDescent="0.25">
@@ -20416,7 +21305,7 @@
         <v>4121</v>
       </c>
       <c r="AP609" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="610" spans="4:42" x14ac:dyDescent="0.25">
@@ -20424,7 +21313,7 @@
         <v>4122</v>
       </c>
       <c r="AP610" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="611" spans="4:42" x14ac:dyDescent="0.25">
@@ -20432,7 +21321,7 @@
         <v>4123</v>
       </c>
       <c r="AP611" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="612" spans="4:42" x14ac:dyDescent="0.25">
@@ -20440,12 +21329,12 @@
         <v>4124</v>
       </c>
       <c r="AP612" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="613" spans="4:42" x14ac:dyDescent="0.25">
       <c r="AP613" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="614" spans="4:42" x14ac:dyDescent="0.25">
@@ -20453,7 +21342,7 @@
         <v>4125</v>
       </c>
       <c r="AP614" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="615" spans="4:42" x14ac:dyDescent="0.25">
@@ -20461,7 +21350,7 @@
         <v>4126</v>
       </c>
       <c r="AP615" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="616" spans="4:42" x14ac:dyDescent="0.25">
@@ -20469,12 +21358,12 @@
         <v>374</v>
       </c>
       <c r="AP616" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="617" spans="4:42" x14ac:dyDescent="0.25">
       <c r="AP617" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="618" spans="4:42" x14ac:dyDescent="0.25">
@@ -20842,39 +21731,2086 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C705" t="s">
         <v>4177</v>
       </c>
     </row>
-    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D706" t="s">
         <v>4178</v>
       </c>
     </row>
-    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C708" t="s">
         <v>4179</v>
       </c>
     </row>
-    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D709" t="s">
         <v>4180</v>
       </c>
     </row>
-    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C710" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C712" t="s">
         <v>4079</v>
       </c>
     </row>
-    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B713" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" s="27" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B716" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B717" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B718" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B719" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B720" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="721" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B721" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C721" s="1"/>
+      <c r="D721" s="1"/>
+      <c r="E721" s="1"/>
+      <c r="F721" s="1"/>
+      <c r="G721" s="1"/>
+      <c r="H721" s="1"/>
+      <c r="I721" s="1"/>
+      <c r="J721" s="1"/>
+      <c r="K721" s="1"/>
+      <c r="L721" s="1"/>
+      <c r="M721" s="1"/>
+      <c r="N721" s="1"/>
+      <c r="O721" s="1"/>
+      <c r="P721" s="1"/>
+      <c r="Q721" s="1"/>
+      <c r="R721" s="1"/>
+      <c r="S721" s="1"/>
+      <c r="T721" s="1"/>
+      <c r="U721" s="1"/>
+      <c r="V721" s="1"/>
+      <c r="W721" s="1"/>
+      <c r="X721" s="1"/>
+    </row>
+    <row r="722" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B722" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="723" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B723" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="724" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B724" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="727" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A727" s="27" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="728" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C728" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="729" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C729" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="730" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C730" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E730" s="1"/>
+      <c r="F730" s="1"/>
+      <c r="G730" s="1"/>
+      <c r="H730" s="1"/>
+      <c r="I730" s="1"/>
+    </row>
+    <row r="731" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C731" t="s">
+        <v>1366</v>
+      </c>
+      <c r="X731" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="732" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C732" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="733" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C733" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="736" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A736" s="27" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C737" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C738" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C739" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C740" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C741" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C742" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C743" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C745" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C747" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C749" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C751" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C752" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C753" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C755" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C756" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C757" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C758" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C759" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C760" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C761" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C763" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C764" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C765" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C766" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C767" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="769" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C769" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D769" s="1"/>
+      <c r="E769" s="1"/>
+      <c r="F769" s="1"/>
+      <c r="G769" s="1"/>
+      <c r="H769" s="1"/>
+      <c r="I769" s="1"/>
+      <c r="J769" s="1"/>
+      <c r="K769" s="1"/>
+      <c r="L769" s="1"/>
+      <c r="M769" s="1"/>
+      <c r="N769" s="1"/>
+    </row>
+    <row r="770" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C770" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="771" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C771" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="772" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C772" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="773" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C773" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="774" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C774" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="775" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C775" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="777" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C777" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="778" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C778" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="779" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C779" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="780" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C780" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="781" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C781" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="782" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C782" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="783" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C783" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="784" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C784" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="785" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C785" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="786" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C786" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="787" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C787" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="789" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C789" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="791" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C791" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F791" s="1"/>
+      <c r="G791" s="1"/>
+      <c r="H791" s="1"/>
+      <c r="I791" s="1"/>
+      <c r="J791" s="1"/>
+      <c r="K791" s="1"/>
+      <c r="L791" s="1"/>
+      <c r="M791" s="1"/>
+      <c r="N791" s="1"/>
+      <c r="O791" s="1"/>
+      <c r="P791" s="1"/>
+      <c r="Q791" s="1"/>
+      <c r="R791" s="1"/>
+      <c r="S791" s="1"/>
+      <c r="T791" s="1"/>
+      <c r="U791" s="1"/>
+      <c r="V791" s="1"/>
+      <c r="W791" s="1"/>
+      <c r="X791" s="1"/>
+      <c r="Y791" s="1"/>
+      <c r="Z791" s="1"/>
+      <c r="AA791" s="1"/>
+    </row>
+    <row r="792" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C792" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="794" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C794" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="795" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C795" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="796" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C796" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="797" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C797" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="798" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C798" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="799" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C799" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="800" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C800" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C801" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C803" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C804" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C805" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C806" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C807" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C808" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C809" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C810" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C811" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C812" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C813" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C814" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C815" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C816" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C818" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C820" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C821" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C822" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C823" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C824" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C826" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C828" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C829" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C830" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C831" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" s="27" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C834" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C835" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C836" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C837" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C838" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C839" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C840" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C842" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C843" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C844" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C845" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C846" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C847" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C849" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C850" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C851" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C853" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C854" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C856" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C858" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C859" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C860" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C861" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C862" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C863" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="865" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C865" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="866" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C866" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="867" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C867" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="868" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C868" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="869" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C869" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="870" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C870" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="871" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C871" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="872" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C872" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="873" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C873" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="874" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C874" t="s">
+        <v>4319</v>
+      </c>
+      <c r="D874" s="1"/>
+      <c r="E874" s="1"/>
+      <c r="F874" s="1"/>
+      <c r="G874" s="1"/>
+      <c r="H874" s="1"/>
+      <c r="I874" s="1"/>
+      <c r="J874" s="1"/>
+      <c r="K874" s="1"/>
+      <c r="L874" s="1"/>
+      <c r="M874" s="1"/>
+      <c r="N874" s="1"/>
+      <c r="O874" s="1"/>
+      <c r="P874" s="1"/>
+      <c r="Q874" s="1"/>
+      <c r="R874" s="1"/>
+      <c r="S874" s="1"/>
+      <c r="T874" s="1"/>
+      <c r="U874" s="1"/>
+      <c r="V874" s="1"/>
+      <c r="W874" s="1"/>
+      <c r="X874" s="1"/>
+      <c r="Y874" s="1"/>
+      <c r="Z874" s="1"/>
+      <c r="AA874" s="1"/>
+      <c r="AB874" s="1"/>
+      <c r="AC874" s="1"/>
+      <c r="AD874" s="1"/>
+      <c r="AE874" s="1"/>
+      <c r="AF874" s="1"/>
+      <c r="AG874" s="1"/>
+      <c r="AK874" s="2" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="875" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C875" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D875" s="1"/>
+      <c r="E875" s="1"/>
+      <c r="F875" s="1"/>
+      <c r="G875" s="1"/>
+      <c r="H875" s="1"/>
+      <c r="I875" s="1"/>
+      <c r="J875" s="1"/>
+      <c r="K875" s="1"/>
+      <c r="L875" s="1"/>
+      <c r="M875" s="1"/>
+      <c r="N875" s="1"/>
+      <c r="O875" s="1"/>
+      <c r="P875" s="1"/>
+      <c r="Q875" s="1"/>
+      <c r="R875" s="1"/>
+      <c r="S875" s="1"/>
+      <c r="T875" s="1"/>
+      <c r="U875" s="1"/>
+      <c r="V875" s="1"/>
+      <c r="W875" s="1"/>
+      <c r="X875" s="1"/>
+      <c r="Y875" s="1"/>
+      <c r="Z875" s="1"/>
+      <c r="AA875" s="1"/>
+      <c r="AB875" s="1"/>
+      <c r="AC875" s="1"/>
+      <c r="AD875" s="1"/>
+      <c r="AE875" s="1"/>
+      <c r="AF875" s="1"/>
+      <c r="AG875" s="1"/>
+    </row>
+    <row r="876" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C876" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D876" s="1"/>
+      <c r="E876" s="1"/>
+      <c r="F876" s="1"/>
+      <c r="G876" s="1"/>
+      <c r="H876" s="1"/>
+      <c r="I876" s="1"/>
+      <c r="J876" s="1"/>
+      <c r="K876" s="1"/>
+      <c r="L876" s="1"/>
+      <c r="M876" s="1"/>
+      <c r="N876" s="1"/>
+      <c r="O876" s="1"/>
+      <c r="P876" s="1"/>
+      <c r="Q876" s="1"/>
+      <c r="R876" s="1"/>
+      <c r="S876" s="1"/>
+      <c r="T876" s="1"/>
+      <c r="U876" s="1"/>
+      <c r="V876" s="1"/>
+      <c r="W876" s="1"/>
+      <c r="X876" s="1"/>
+      <c r="Y876" s="1"/>
+      <c r="Z876" s="1"/>
+      <c r="AA876" s="1"/>
+      <c r="AB876" s="1"/>
+      <c r="AC876" s="1"/>
+      <c r="AD876" s="1"/>
+      <c r="AE876" s="1"/>
+      <c r="AF876" s="1"/>
+      <c r="AG876" s="1"/>
+    </row>
+    <row r="877" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C877" t="s">
+        <v>49</v>
+      </c>
+      <c r="D877" s="1"/>
+      <c r="E877" s="1"/>
+      <c r="F877" s="1"/>
+      <c r="G877" s="1"/>
+      <c r="H877" s="1"/>
+      <c r="I877" s="1"/>
+      <c r="J877" s="1"/>
+      <c r="K877" s="1"/>
+      <c r="L877" s="1"/>
+      <c r="M877" s="1"/>
+      <c r="N877" s="1"/>
+      <c r="O877" s="1"/>
+      <c r="P877" s="1"/>
+      <c r="Q877" s="1"/>
+      <c r="R877" s="1"/>
+      <c r="S877" s="1"/>
+      <c r="T877" s="1"/>
+      <c r="U877" s="1"/>
+      <c r="V877" s="1"/>
+      <c r="W877" s="1"/>
+      <c r="X877" s="1"/>
+      <c r="Y877" s="1"/>
+      <c r="Z877" s="1"/>
+      <c r="AA877" s="1"/>
+      <c r="AB877" s="1"/>
+      <c r="AC877" s="1"/>
+      <c r="AD877" s="1"/>
+      <c r="AE877" s="1"/>
+      <c r="AF877" s="1"/>
+      <c r="AG877" s="1"/>
+    </row>
+    <row r="878" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C878" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="880" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C880" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C881" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C882" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C883" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C884" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C885" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C886" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C888" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C889" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C890" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C892" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C893" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C894" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C896" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C897" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C898" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C899" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C901" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C902" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C903" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C905" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C906" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C908" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C909" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C910" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C911" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C912" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C913" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C915" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C917" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C918" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C919" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C921" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C922" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C924" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C925" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C927" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C928" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="929" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C929" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="930" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C930" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="932" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C932" s="2" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="933" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A933" s="27" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C933" s="2"/>
+    </row>
+    <row r="934" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A934" s="27" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="935" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C935" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="936" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K936" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="937" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C937" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="938" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C938" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="939" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C939" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="940" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C940" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="941" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C941" t="s">
+        <v>4352</v>
+      </c>
+      <c r="X941" s="1"/>
+      <c r="Y941" s="1"/>
+      <c r="AD941" s="2" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="942" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C942" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD942" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="943" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C943" t="s">
+        <v>4353</v>
+      </c>
+      <c r="AD943" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="944" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD944" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="945" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD945" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="946" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD946" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="947" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD947" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="948" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD948" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="949" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD949" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="950" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD950" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="951" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD951" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="952" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD952" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="953" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD953" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="954" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD954" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="955" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD955" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="956" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD956" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="957" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD957" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="958" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD958" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="959" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD959" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="960" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD960" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="961" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD961" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="962" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD962" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="963" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD963" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="964" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD964" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="965" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD965" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="966" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD966" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="967" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD967" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="968" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD968" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="969" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD969" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="970" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD970" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="971" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD971" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="972" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD972" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="973" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD973" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="974" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD974" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="975" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD975" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="AE975" s="1"/>
+      <c r="AF975" s="1"/>
+      <c r="AG975" s="1"/>
+      <c r="AH975" s="1"/>
+      <c r="AI975" s="1"/>
+      <c r="AJ975" s="1"/>
+      <c r="AK975" s="1"/>
+      <c r="AL975" s="1"/>
+      <c r="AM975" s="1"/>
+      <c r="AN975" s="2" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="976" spans="30:40" x14ac:dyDescent="0.25">
+      <c r="AD976" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="AE976" s="1"/>
+      <c r="AF976" s="1"/>
+      <c r="AG976" s="1"/>
+      <c r="AH976" s="1"/>
+      <c r="AI976" s="1"/>
+      <c r="AJ976" s="1"/>
+      <c r="AK976" s="1"/>
+      <c r="AL976" s="1"/>
+      <c r="AM976" s="1"/>
+    </row>
+    <row r="977" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD977" s="1" t="s">
+        <v>4384</v>
+      </c>
+      <c r="AE977" s="1"/>
+      <c r="AF977" s="1"/>
+      <c r="AG977" s="1"/>
+      <c r="AH977" s="1"/>
+      <c r="AI977" s="1"/>
+      <c r="AJ977" s="1"/>
+      <c r="AK977" s="1"/>
+      <c r="AL977" s="1"/>
+      <c r="AM977" s="1"/>
+    </row>
+    <row r="978" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD978" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="AE978" s="1"/>
+      <c r="AF978" s="1"/>
+      <c r="AG978" s="1"/>
+      <c r="AH978" s="1"/>
+      <c r="AI978" s="1"/>
+      <c r="AJ978" s="1"/>
+      <c r="AK978" s="1"/>
+      <c r="AL978" s="1"/>
+      <c r="AM978" s="1"/>
+    </row>
+    <row r="979" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD979" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="980" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD980" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="981" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD981" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="982" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD982" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="983" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD983" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="984" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD984" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="985" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD985" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="986" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD986" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="987" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD987" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="988" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD988" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="989" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD989" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="990" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD990" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="991" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD991" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="992" spans="30:39" x14ac:dyDescent="0.25">
+      <c r="AD992" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="993" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD993" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="994" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD994" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="995" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD995" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="996" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD996" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="997" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD997" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="998" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD998" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="999" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD999" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1000" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1000" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="1001" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1001" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="1002" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1002" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="1003" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1003" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="1004" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1004" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="1005" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1005" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="1006" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1006" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="1007" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1007" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="1008" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1008" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="1009" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1009" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="1010" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1010" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="1011" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1011" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="1012" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1012" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="1013" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1013" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="1014" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1014" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="1015" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1015" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="1016" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1016" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="1017" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1017" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="1018" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1018" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="1019" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1019" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="1020" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1020" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="1021" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1021" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="1022" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1022" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="1023" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1023" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="1024" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1024" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="1025" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1025" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="1026" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1026" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="1027" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1027" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="1028" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1028" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="1029" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1029" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="1030" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1030" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1031" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1031" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="1032" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1032" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="1033" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1033" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="1034" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1034" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="1035" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1035" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="1036" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1036" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="1037" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1037" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="1038" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1038" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="1039" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1039" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="1040" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1040" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="1041" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1041" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1042" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1042" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="1043" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1043" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="1044" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1044" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="1045" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1045" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="1046" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1046" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="1047" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1047" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="1048" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1048" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="1049" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1049" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="1050" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1050" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="1051" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1051" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="1052" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1052" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1053" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1053" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="1054" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1054" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="1055" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1055" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="1056" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1056" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="1057" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1057" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="1058" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1058" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="1059" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1059" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="1060" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1060" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="1061" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1061" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="1062" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1062" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="1063" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1063" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="1064" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1064" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="1065" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1065" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="1066" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1066" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="1067" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1067" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="1068" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1068" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="1069" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1069" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="1070" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1070" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="1071" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1071" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="1072" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1072" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="1073" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1073" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="1074" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1074" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="1075" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1075" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="1076" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1076" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="1077" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1077" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="1078" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1078" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="1079" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1079" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="1080" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1080" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="1081" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1081" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="1082" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1082" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="1083" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1083" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="1084" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1084" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="1085" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1085" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="1086" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1086" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="1087" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1087" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="1088" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1088" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="1089" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1089" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="1090" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1090" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="1091" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1091" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="1092" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1092" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="1093" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1093" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="1094" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1094" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="1095" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1095" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="1096" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1096" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="1097" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1097" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="1098" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1098" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="1099" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1099" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="1100" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1100" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="1101" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1101" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="1102" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1102" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1103" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1103" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1104" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1104" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="1105" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1105" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="1106" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1106" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="1107" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1107" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="1108" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1108" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="1109" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1109" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="1110" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1110" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="1111" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1111" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="1112" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1112" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="1113" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1113" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="1114" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD1114" t="s">
+        <v>4521</v>
       </c>
     </row>
   </sheetData>
